--- a/data/SEIRH_Beta.xlsx
+++ b/data/SEIRH_Beta.xlsx
@@ -377,7 +377,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -416,7 +416,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -430,7 +430,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -472,7 +472,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -486,7 +486,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -514,7 +514,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -528,7 +528,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -570,7 +570,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -584,10 +584,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -612,10 +612,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -626,10 +626,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -640,10 +640,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -654,10 +654,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -668,10 +668,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -682,7 +682,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C24" t="n">
         <v>2</v>
@@ -696,10 +696,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -710,10 +710,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -738,10 +738,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>1</v>
@@ -752,10 +752,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -766,10 +766,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -794,13 +794,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="C32" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -808,10 +808,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="C33" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C34" t="n">
         <v>14</v>
@@ -836,13 +836,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>149</v>
+        <v>274</v>
       </c>
       <c r="C35" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -850,13 +850,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>256</v>
+        <v>194</v>
       </c>
       <c r="C36" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -864,10 +864,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="C37" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>511</v>
+        <v>180</v>
       </c>
       <c r="C38" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -892,10 +892,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>356</v>
+        <v>573</v>
       </c>
       <c r="C39" t="n">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -906,10 +906,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>569</v>
+        <v>414</v>
       </c>
       <c r="C40" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -920,10 +920,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>766</v>
+        <v>680</v>
       </c>
       <c r="C41" t="n">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="D41" t="n">
         <v>1</v>
@@ -934,13 +934,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>883</v>
+        <v>964</v>
       </c>
       <c r="C42" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -948,13 +948,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>932</v>
+        <v>307</v>
       </c>
       <c r="C43" t="n">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
@@ -962,10 +962,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>1882</v>
+        <v>1218</v>
       </c>
       <c r="C44" t="n">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="D44" t="n">
         <v>3</v>
@@ -976,13 +976,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>1772</v>
+        <v>952</v>
       </c>
       <c r="C45" t="n">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -990,13 +990,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>916</v>
+        <v>2014</v>
       </c>
       <c r="C46" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -1004,10 +1004,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>1806</v>
+        <v>1373</v>
       </c>
       <c r="C47" t="n">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="D47" t="n">
         <v>3</v>
@@ -1018,10 +1018,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>1201</v>
+        <v>2312</v>
       </c>
       <c r="C48" t="n">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="D48" t="n">
         <v>2</v>
@@ -1032,13 +1032,13 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>2650</v>
+        <v>2673</v>
       </c>
       <c r="C49" t="n">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="D49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1046,13 +1046,13 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>2380</v>
+        <v>2050</v>
       </c>
       <c r="C50" t="n">
-        <v>106</v>
+        <v>165</v>
       </c>
       <c r="D50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51">
@@ -1060,13 +1060,13 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>1350</v>
+        <v>1313</v>
       </c>
       <c r="C51" t="n">
-        <v>150</v>
+        <v>288</v>
       </c>
       <c r="D51" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52">
@@ -1074,13 +1074,13 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>2829</v>
+        <v>2404</v>
       </c>
       <c r="C52" t="n">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="D52" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53">
@@ -1088,10 +1088,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>2442</v>
+        <v>1968</v>
       </c>
       <c r="C53" t="n">
-        <v>205</v>
+        <v>252</v>
       </c>
       <c r="D53" t="n">
         <v>5</v>
@@ -1102,10 +1102,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>1962</v>
+        <v>4677</v>
       </c>
       <c r="C54" t="n">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D54" t="n">
         <v>5</v>
@@ -1116,13 +1116,13 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>2597</v>
+        <v>1775</v>
       </c>
       <c r="C55" t="n">
-        <v>122</v>
+        <v>219</v>
       </c>
       <c r="D55" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56">
@@ -1130,13 +1130,13 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>2005</v>
+        <v>2273</v>
       </c>
       <c r="C56" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D56" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57">
@@ -1144,13 +1144,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>2587</v>
+        <v>1611</v>
       </c>
       <c r="C57" t="n">
-        <v>322</v>
+        <v>247</v>
       </c>
       <c r="D57" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58">
@@ -1158,13 +1158,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>4220</v>
+        <v>2249</v>
       </c>
       <c r="C58" t="n">
-        <v>333</v>
+        <v>188</v>
       </c>
       <c r="D58" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59">
@@ -1172,13 +1172,13 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>1475</v>
+        <v>1830</v>
       </c>
       <c r="C59" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D59" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60">
@@ -1186,13 +1186,13 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>911</v>
+        <v>1064</v>
       </c>
       <c r="C60" t="n">
-        <v>287</v>
+        <v>146</v>
       </c>
       <c r="D60" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61">
@@ -1200,13 +1200,13 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>1476</v>
+        <v>1785</v>
       </c>
       <c r="C61" t="n">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="D61" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62">
@@ -1214,13 +1214,13 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>2138</v>
+        <v>1870</v>
       </c>
       <c r="C62" t="n">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="D62" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63">
@@ -1228,13 +1228,13 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>816</v>
+        <v>1017</v>
       </c>
       <c r="C63" t="n">
         <v>144</v>
       </c>
       <c r="D63" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64">
@@ -1242,13 +1242,13 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>1455</v>
+        <v>1232</v>
       </c>
       <c r="C64" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D64" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65">
@@ -1256,13 +1256,13 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>846</v>
+        <v>871</v>
       </c>
       <c r="C65" t="n">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D65" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66">
@@ -1270,13 +1270,13 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>910</v>
+        <v>941</v>
       </c>
       <c r="C66" t="n">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D66" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67">
@@ -1284,13 +1284,13 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>944</v>
+        <v>575</v>
       </c>
       <c r="C67" t="n">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="D67" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68">
@@ -1298,13 +1298,13 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>360</v>
+        <v>326</v>
       </c>
       <c r="C68" t="n">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="D68" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69">
@@ -1312,13 +1312,13 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>311</v>
+        <v>282</v>
       </c>
       <c r="C69" t="n">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="D69" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70">
@@ -1326,13 +1326,13 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>518</v>
+        <v>352</v>
       </c>
       <c r="C70" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D70" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71">
@@ -1340,13 +1340,13 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>381</v>
+        <v>336</v>
       </c>
       <c r="C71" t="n">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D71" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72">
@@ -1354,13 +1354,13 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>311</v>
+        <v>209</v>
       </c>
       <c r="C72" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D72" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73">
@@ -1368,13 +1368,13 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="C73" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D73" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74">
@@ -1382,13 +1382,13 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="C74" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D74" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75">
@@ -1396,13 +1396,13 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="C75" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D75" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76">
@@ -1410,13 +1410,13 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="C76" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D76" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77">
@@ -1424,13 +1424,13 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="C77" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D77" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78">
@@ -1438,13 +1438,13 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c r="C78" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D78" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79">
@@ -1452,13 +1452,13 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="C79" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D79" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80">
@@ -1466,13 +1466,13 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C80" t="n">
         <v>6</v>
       </c>
       <c r="D80" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81">
@@ -1480,13 +1480,13 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C81" t="n">
         <v>7</v>
       </c>
       <c r="D81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82">
@@ -1494,13 +1494,13 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="C82" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D82" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83">
@@ -1508,13 +1508,13 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="C83" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D83" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84">
@@ -1522,13 +1522,13 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C84" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -1536,13 +1536,13 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C85" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -1550,10 +1550,10 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D86" t="n">
         <v>2</v>
@@ -1564,13 +1564,13 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
@@ -1578,13 +1578,13 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
@@ -1592,10 +1592,10 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>1</v>
@@ -1606,13 +1606,13 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91">
@@ -1620,13 +1620,13 @@
         <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C91" t="n">
         <v>2</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -1634,13 +1634,13 @@
         <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93">
@@ -1651,7 +1651,7 @@
         <v>5</v>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D93" t="n">
         <v>1</v>
@@ -1662,10 +1662,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
@@ -1676,7 +1676,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -1696,7 +1696,7 @@
         <v>1</v>
       </c>
       <c r="D96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -1704,13 +1704,13 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -1718,7 +1718,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -1732,7 +1732,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -1746,7 +1746,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -1760,7 +1760,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
